--- a/Examples/AHP_Ratings_Employee_Evaluation/Ratings_Employee_Eval_withjudgments.xlsx
+++ b/Examples/AHP_Ratings_Employee_Evaluation/Ratings_Employee_Eval_withjudgments.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/GITHUB/AhpAnpLib/Examples/AHP Ratings Employee Evaluation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/GITHUB/AhpAnpLib/Examples/AHP_Ratings_Employee_Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1EDA7E-ABFA-A44F-931F-F090EB798345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C735CAF-5490-1946-92E0-556A60687FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="22160" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -740,6 +740,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="7">
+        <f>4</f>
         <v>4</v>
       </c>
       <c r="G7" s="7">
